--- a/app/excel/Zadachka2.xlsx
+++ b/app/excel/Zadachka2.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Значение целевой функции: 36575.0</t>
+          <t>Значение целевой функции: 4600.0</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>x_0 = 10.0</t>
+          <t>x_0 = 9.0</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       <c r="F6" s="4" t="n"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>x_2 = 10.0</t>
+          <t>x_2 = 9.0</t>
         </is>
       </c>
     </row>
@@ -594,11 +594,6 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>Х = 10</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Номер оптимальной задачи: 1</t>
         </is>
       </c>
     </row>

--- a/app/excel/Zadachka2.xlsx
+++ b/app/excel/Zadachka2.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Значение целевой функции: 4600.0</t>
+          <t>Значение целевой функции: 104900.0</t>
         </is>
       </c>
     </row>
@@ -505,14 +505,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>x_0 = 9.0</t>
+          <t>Количество партий товаров:</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="5" s="1">
       <c r="J5" t="inlineStr">
         <is>
-          <t>x_1 = 10.0</t>
+          <t>Товар 1 = 10.0</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       <c r="F6" s="4" t="n"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>x_2 = 9.0</t>
+          <t>Товар 2 = 10.0</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Сортировка: b/a</t>
+          <t>Товар 3 = 10.0</t>
         </is>
       </c>
     </row>
@@ -594,6 +594,11 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>Х = 10</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Сортировка: b/a</t>
         </is>
       </c>
     </row>
